--- a/Excel/EposInteractionTile.xlsx
+++ b/Excel/EposInteractionTile.xlsx
@@ -468,6 +468,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="15.63"/>
     <col customWidth="1" min="4" max="4" width="14.13"/>
   </cols>
   <sheetData>
@@ -487,7 +488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>1021001.0</v>
+        <v>108.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -502,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>1021001.0</v>
+        <v>108.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
